--- a/notes/sql_workbook.xlsx
+++ b/notes/sql_workbook.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\john\projects\recsys\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1842A77F-AA63-467D-9D9A-542BBACC9CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8651E0-4648-40F4-9A3B-A07F301A72DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51195" yWindow="2730" windowWidth="22560" windowHeight="15435" xr2:uid="{E9B37691-DBF7-4F5E-BB6F-BE89D26A8B42}"/>
+    <workbookView xWindow="43215" yWindow="5235" windowWidth="33600" windowHeight="15435" xr2:uid="{E9B37691-DBF7-4F5E-BB6F-BE89D26A8B42}"/>
   </bookViews>
   <sheets>
-    <sheet name="dataset" sheetId="1" r:id="rId1"/>
-    <sheet name="common_columns" sheetId="2" r:id="rId2"/>
+    <sheet name="datasource" sheetId="3" r:id="rId1"/>
+    <sheet name="dataset" sheetId="1" r:id="rId2"/>
+    <sheet name="common_columns" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="main">common_columns!$B$2:$D$9</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="49">
   <si>
     <t>#</t>
   </si>
@@ -149,6 +150,33 @@
   </si>
   <si>
     <t>density</t>
+  </si>
+  <si>
+    <t>uri</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>published</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>doi</t>
+  </si>
+  <si>
+    <t>email</t>
   </si>
 </sst>
 </file>
@@ -502,10 +530,779 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE023F01-FE45-438F-A2FE-B3515C2E62C2}">
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="6" max="6" width="55" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="str">
+        <f>VLOOKUP(B2,main,2,FALSE)</f>
+        <v xml:space="preserve">INTEGER </v>
+      </c>
+      <c r="E2" t="str">
+        <f>VLOOKUP(B2,main,3,FALSE)</f>
+        <v>PRIMARY KEY</v>
+      </c>
+      <c r="F2" t="str">
+        <f>CONCATENATE(B2," ",D2," ",E2,",")</f>
+        <v>id INTEGER  PRIMARY KEY,</v>
+      </c>
+      <c r="G2" t="str">
+        <f>CONCATENATE(B2," = ?,")</f>
+        <v>id = ?,</v>
+      </c>
+      <c r="H2" t="str">
+        <f>CONCATENATE(B2,", ")</f>
+        <v xml:space="preserve">id, </v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="str">
+        <f>CONCATENATE("self.",B2," = ",B2,", ")</f>
+        <v xml:space="preserve">self.id = id, </v>
+      </c>
+      <c r="K2" t="str">
+        <f>CONCATENATE(B2,": ",C2)</f>
+        <v>id: int</v>
+      </c>
+      <c r="M2" t="str">
+        <f>CONCATENATE(B2,"=self.row[",A2-1,"],","")</f>
+        <v>id=self.row[0],</v>
+      </c>
+      <c r="O2" t="str">
+        <f>CONCATENATE(B2,"=self._",B2,",")</f>
+        <v>id=self._id,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="str">
+        <f>VLOOKUP(B3,main,2,FALSE)</f>
+        <v>TEXT</v>
+      </c>
+      <c r="E3" t="str">
+        <f>VLOOKUP(B3,main,3,FALSE)</f>
+        <v>NOT NULL</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F15" si="0">CONCATENATE(B3," ",D3," ",E3,",")</f>
+        <v>name TEXT NOT NULL,</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G15" si="1">CONCATENATE(B3," = ?,")</f>
+        <v>name = ?,</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H15" si="2">CONCATENATE(B3,", ")</f>
+        <v xml:space="preserve">name, </v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J15" si="3">CONCATENATE("self.",B3," = ",B3,", ")</f>
+        <v xml:space="preserve">self.name = name, </v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K15" si="4">CONCATENATE(B3,": ",C3)</f>
+        <v>name: str</v>
+      </c>
+      <c r="L3" t="str">
+        <f>CONCATENATE("self.dto.",B3,", ")</f>
+        <v xml:space="preserve">self.dto.name, </v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M15" si="5">CONCATENATE(B3,"=self.row[",A3-1,"],","")</f>
+        <v>name=self.row[1],</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O14" si="6">CONCATENATE(B3,"=self._",B3,",")</f>
+        <v>name=self._name,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="str">
+        <f>VLOOKUP(B4,main,3,FALSE)</f>
+        <v>NOT NULL</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>type TEXT NOT NULL,</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>type = ?,</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">type, </v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">self.type = type, </v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="4"/>
+        <v>type: str</v>
+      </c>
+      <c r="L4" t="str">
+        <f>CONCATENATE("self.dto.",B4,", ")</f>
+        <v xml:space="preserve">self.dto.type, </v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="5"/>
+        <v>type=self.row[2],</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="6"/>
+        <v>type=self._type,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>title TEXT NOT NULL,</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>title = ?,</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">title, </v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">self.title = title, </v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="4"/>
+        <v>title: str</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" ref="L5:L14" si="7">CONCATENATE("self.dto.",B5,", ")</f>
+        <v xml:space="preserve">self.dto.title, </v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="5"/>
+        <v>title=self.row[3],</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="6"/>
+        <v>title=self._title,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="str">
+        <f>VLOOKUP(B6,main,2,FALSE)</f>
+        <v>TEXT</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>description TEXT NOT NULL,</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>description = ?,</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">description, </v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">self.description = description, </v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="4"/>
+        <v>description: str</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">self.dto.description, </v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="5"/>
+        <v>description=self.row[4],</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="6"/>
+        <v>description=self._description,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>author TEXT NOT NULL,</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>author = ?,</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">author, </v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">self.author = author, </v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="4"/>
+        <v>author: str</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">self.dto.author, </v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="5"/>
+        <v>author=self.row[5],</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="6"/>
+        <v>author=self._author,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>publisher TEXT NOT NULL,</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>publisher = ?,</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">publisher, </v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">self.publisher = publisher, </v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="4"/>
+        <v>publisher: str</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">self.dto.publisher, </v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="5"/>
+        <v>publisher=self.row[6],</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="6"/>
+        <v>publisher=self._publisher,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>published TEXT ,</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>published = ?,</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">published, </v>
+      </c>
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">self.published = published, </v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="4"/>
+        <v>published: str</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">self.dto.published, </v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="5"/>
+        <v>published=self.row[7],</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="6"/>
+        <v>published=self._published,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>version TEXT ,</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>version = ?,</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">version, </v>
+      </c>
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">self.version = version, </v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="4"/>
+        <v>version: str</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">self.dto.version, </v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="5"/>
+        <v>version=self.row[8],</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="6"/>
+        <v>version=self._version,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>website TEXT NOT NULL,</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>website = ?,</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">website, </v>
+      </c>
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">self.website = website, </v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="4"/>
+        <v>website: str</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">self.dto.website, </v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="5"/>
+        <v>website=self.row[9],</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="6"/>
+        <v>website=self._website,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" ref="F12" si="8">CONCATENATE(B12," ",D12," ",E12,",")</f>
+        <v>uri TEXT NOT NULL,</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" ref="G12" si="9">CONCATENATE(B12," = ?,")</f>
+        <v>uri = ?,</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" ref="H12" si="10">CONCATENATE(B12,", ")</f>
+        <v xml:space="preserve">uri, </v>
+      </c>
+      <c r="I12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" ref="J12" si="11">CONCATENATE("self.",B12," = ",B12,", ")</f>
+        <v xml:space="preserve">self.uri = uri, </v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" ref="K12" si="12">CONCATENATE(B12,": ",C12)</f>
+        <v>uri: str</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" ref="L12" si="13">CONCATENATE("self.dto.",B12,", ")</f>
+        <v xml:space="preserve">self.dto.uri, </v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="5"/>
+        <v>uri=self.row[10],</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="6"/>
+        <v>uri=self._uri,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>doi TEXT ,</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>doi = ?,</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">doi, </v>
+      </c>
+      <c r="I13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">self.doi = doi, </v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="4"/>
+        <v>doi: str</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">self.dto.doi, </v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="5"/>
+        <v>doi=self.row[11],</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="6"/>
+        <v>doi=self._doi,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>email TEXT ,</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>email = ?,</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">email, </v>
+      </c>
+      <c r="I14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">self.email = email, </v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="4"/>
+        <v>email: str</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">self.dto.email, </v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="5"/>
+        <v>email=self.row[12],</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="6"/>
+        <v>email=self._email,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="str">
+        <f>VLOOKUP(B15,main,3,FALSE)</f>
+        <v>DEFAULT CURRENT_TIMESTAMP</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>created TEXT DEFAULT CURRENT_TIMESTAMP,</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>created = ?,</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">created, </v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">self.created = created, </v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="4"/>
+        <v>created: timestamp</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="5"/>
+        <v>created=self.row[13],</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70719B4-EAA9-4EFA-A4FB-A6F28AB7D87D}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M19" sqref="M2:M19"/>
     </sheetView>
   </sheetViews>
@@ -1426,7 +2223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3857C3C-A4D7-474E-BA7B-CF951654C0FA}">
   <dimension ref="A1:D8"/>
   <sheetViews>
